--- a/QuantLibXL/Data2/Book5.xlsx
+++ b/QuantLibXL/Data2/Book5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="HKD_YCRH_Deposits" sheetId="10" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="Selected" sheetId="5" r:id="rId6"/>
     <sheet name="General Settings" sheetId="4" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$24</definedName>
     <definedName name="BondBasisDayCounter">HKD_YCRH_Swaps!$D$16</definedName>
@@ -43,24 +40,14 @@
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$11</definedName>
     <definedName name="Permanent">'General Settings'!$D$9</definedName>
-    <definedName name="PriceTickValue">[1]HKD_010_BasisSwapQuotes!$D$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Selected!$D$1:$J$50</definedName>
-    <definedName name="QuoteSuffix">[1]HKD_010_BasisSwapQuotes!$D$15</definedName>
+    <definedName name="QuoteSuffix">'General Settings'!$D$14</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$125</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$125</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$125</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
-    <definedName name="RateTickValue">[1]HKD_010_BasisSwapQuotes!$D$16</definedName>
-    <definedName name="SerializationPath">[1]HKD_010_BasisSwapQuotes!$D$8</definedName>
-    <definedName name="Serialize">[1]HKD_010_BasisSwapQuotes!$D$7</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$7</definedName>
-    <definedName name="SwapMainSetConventions">[1]HKD_010_SwapQuotes!$J$144:$L$151</definedName>
-    <definedName name="SwapSecondarySetConventions">[1]HKD_010_SwapQuotes!$J$186:$L$190</definedName>
-    <definedName name="Tenor2">[1]HKD_015_SyntheticQuotes!$C$26</definedName>
-    <definedName name="Tenor3">[1]HKD_015_SyntheticQuotes!$C$39</definedName>
-    <definedName name="Tenor4">[1]HKD_015_SyntheticQuotes!$C$55</definedName>
-    <definedName name="Tenor5">[1]HKD_015_SyntheticQuotes!$C$73</definedName>
     <definedName name="TraitsID">'General Settings'!$D$25</definedName>
     <definedName name="Trigger" localSheetId="6">'General Settings'!$D$10</definedName>
     <definedName name="Trigger">'General Settings'!$D$10</definedName>
@@ -232,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="238">
   <si>
     <t>Currency</t>
   </si>
@@ -830,6 +817,123 @@
   <si>
     <t>STD</t>
   </si>
+  <si>
+    <t>Quote Suffix</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D28</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D31</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D32</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D33</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D34</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D41</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D44</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D45</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D46</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D47</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D48</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D49</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D57</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D60</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D61</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D62</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D63</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D64</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D65</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D66</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D67</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D68</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D75</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D78</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D79</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D80</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D81</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D82</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D83</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D84</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D85</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D86</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D87</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D88</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D89</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D90</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D91</t>
+  </si>
+  <si>
+    <t>='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D92</t>
+  </si>
 </sst>
 </file>
 
@@ -1074,7 +1178,7 @@
     <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1235,13 +1339,16 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1274,416 +1381,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HKD_010_BasisSwapQuotes"/>
-      <sheetName val="HKD_010_DepoFRAFuturesQuotes"/>
-      <sheetName val="HKD_010_SwapQuotes"/>
-      <sheetName val="HKD_015_SyntheticQuotes"/>
-      <sheetName val="HKD_020_FuturesConvAdjQuotes"/>
-      <sheetName val="General Settings"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="D7" t="b">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>_Quote</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>1E-4</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>-0.01</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>HKDOND_Quote#0003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="25">
-          <cell r="F25" t="str">
-            <v>HKDOIS1M_Quote#0003</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="J144" t="str">
-            <v>CHF</v>
-          </cell>
-          <cell r="K144" t="str">
-            <v>AB</v>
-          </cell>
-          <cell r="L144" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="J145" t="str">
-            <v>EUR</v>
-          </cell>
-          <cell r="K145" t="str">
-            <v>AB</v>
-          </cell>
-          <cell r="L145" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="J146" t="str">
-            <v>HKD</v>
-          </cell>
-          <cell r="K146" t="str">
-            <v>QM</v>
-          </cell>
-          <cell r="L146" t="str">
-            <v>3H</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="J149" t="str">
-            <v>GBP</v>
-          </cell>
-          <cell r="K149" t="str">
-            <v>AM</v>
-          </cell>
-          <cell r="L149" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="J150" t="str">
-            <v>JPY</v>
-          </cell>
-          <cell r="K150" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="L150" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="J151" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="K151" t="str">
-            <v>AM</v>
-          </cell>
-          <cell r="L151" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="J186" t="str">
-            <v>CHF</v>
-          </cell>
-          <cell r="K186" t="str">
-            <v>AB</v>
-          </cell>
-          <cell r="L186" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="J187" t="str">
-            <v>EUR</v>
-          </cell>
-          <cell r="K187" t="str">
-            <v>AB</v>
-          </cell>
-          <cell r="L187" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="J188" t="str">
-            <v>GBP</v>
-          </cell>
-          <cell r="K188" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="L188" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="J189" t="str">
-            <v>JPY</v>
-          </cell>
-          <cell r="K189" t="str">
-            <v>SB</v>
-          </cell>
-          <cell r="L189" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="J190" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="K190" t="str">
-            <v>AM</v>
-          </cell>
-          <cell r="L190" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>HKDTOY_SYNTHON_Quote#0003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>1M</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>=qlSimpleQuote(C28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>=qlSimpleQuote(C31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>=qlSimpleQuote(C32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>=qlSimpleQuote(C33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>=qlSimpleQuote(C34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>3M</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>=qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>=qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>=qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>=qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>=qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>=qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>=qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>6M</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57" t="str">
-            <v>=qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>=qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>=qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>=qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>=qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>=qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>=qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>=qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>=qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>=qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>1Y</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75" t="str">
-            <v>=qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78" t="str">
-            <v>=qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79" t="str">
-            <v>=qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80" t="str">
-            <v>=qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81" t="str">
-            <v>=qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82" t="str">
-            <v>=qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83" t="str">
-            <v>=qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84" t="str">
-            <v>=qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85" t="str">
-            <v>=qlSimpleQuote(C85,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="str">
-            <v>=qlSimpleQuote(C86,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87" t="str">
-            <v>=qlSimpleQuote(C87,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88" t="str">
-            <v>=qlSimpleQuote(C88,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89" t="str">
-            <v>=qlSimpleQuote(C89,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90" t="str">
-            <v>=qlSimpleQuote(C90,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91" t="str">
-            <v>=qlSimpleQuote(C91,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92" t="str">
-            <v>=qlSimpleQuote(C92,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="155">
-          <cell r="G155" t="str">
-            <v>HKDFUT3MX3ConvAdj_Quote#0002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>HKD</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1976,8 +1673,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1998,12 +1695,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2061,12 +1758,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -2138,12 +1835,12 @@
         <f>$E$19&amp;"_Deposits.xml"</f>
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F21:F36,SerializationPath&amp;E20,FileOverwrite,,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NAME?</v>
       </c>
       <c r="G20" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(F20)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
         <v/>
       </c>
     </row>
@@ -2166,7 +1863,7 @@
       </c>
       <c r="F21" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E21,D21,C21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_OND#0006</v>
+        <v>HKD_YCSTDRH_OND#0002</v>
       </c>
       <c r="G21" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2192,7 +1889,7 @@
       </c>
       <c r="F22" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E22,D22,C22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SWD#0006</v>
+        <v>HKD_YCSTDRH_SWD#0002</v>
       </c>
       <c r="G22" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2218,7 +1915,7 @@
       </c>
       <c r="F23" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E23,D23,C23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2WD#0006</v>
+        <v>HKD_YCSTDRH_2WD#0002</v>
       </c>
       <c r="G23" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2244,7 +1941,7 @@
       </c>
       <c r="F24" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E24,D24,C24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3WD#0006</v>
+        <v>HKD_YCSTDRH_3WD#0002</v>
       </c>
       <c r="G24" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2270,7 +1967,7 @@
       </c>
       <c r="F25" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E25,D25,C25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1MD#0006</v>
+        <v>HKD_YCSTDRH_1MD#0002</v>
       </c>
       <c r="G25" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2296,7 +1993,7 @@
       </c>
       <c r="F26" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E26,D26,C26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2MD#0006</v>
+        <v>HKD_YCSTDRH_2MD#0002</v>
       </c>
       <c r="G26" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2322,7 +2019,7 @@
       </c>
       <c r="F27" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E27,D27,C27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3MD#0006</v>
+        <v>HKD_YCSTDRH_3MD#0002</v>
       </c>
       <c r="G27" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2348,7 +2045,7 @@
       </c>
       <c r="F28" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E28,D28,C28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_4MD#0006</v>
+        <v>HKD_YCSTDRH_4MD#0002</v>
       </c>
       <c r="G28" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2374,7 +2071,7 @@
       </c>
       <c r="F29" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E29,D29,C29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_5MD#0006</v>
+        <v>HKD_YCSTDRH_5MD#0002</v>
       </c>
       <c r="G29" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2400,7 +2097,7 @@
       </c>
       <c r="F30" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E30,D30,C30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_6MD#0006</v>
+        <v>HKD_YCSTDRH_6MD#0002</v>
       </c>
       <c r="G30" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2426,7 +2123,7 @@
       </c>
       <c r="F31" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E31,D31,C31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_7MD#0006</v>
+        <v>HKD_YCSTDRH_7MD#0002</v>
       </c>
       <c r="G31" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2452,7 +2149,7 @@
       </c>
       <c r="F32" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E32,D32,C32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_8MD#0006</v>
+        <v>HKD_YCSTDRH_8MD#0002</v>
       </c>
       <c r="G32" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2478,7 +2175,7 @@
       </c>
       <c r="F33" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E33,D33,C33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_9MD#0006</v>
+        <v>HKD_YCSTDRH_9MD#0002</v>
       </c>
       <c r="G33" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2504,7 +2201,7 @@
       </c>
       <c r="F34" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E34,D34,C34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_10MD#0006</v>
+        <v>HKD_YCSTDRH_10MD#0002</v>
       </c>
       <c r="G34" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2530,7 +2227,7 @@
       </c>
       <c r="F35" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E35,D35,C35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_11MD#0006</v>
+        <v>HKD_YCSTDRH_11MD#0002</v>
       </c>
       <c r="G35" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2556,7 +2253,7 @@
       </c>
       <c r="F36" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E36,D36,C36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1YD#0006</v>
+        <v>HKD_YCSTDRH_1YD#0002</v>
       </c>
       <c r="G36" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2584,12 +2281,12 @@
         <f>$E$39&amp;"_Deposits.xml"</f>
         <v>HKD_YCRH_Deposits.xml</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F41,SerializationPath&amp;E40,FileOverwrite,,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
       <c r="G40" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(F40)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
         <v/>
       </c>
     </row>
@@ -2612,7 +2309,7 @@
       </c>
       <c r="F41" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E41,D41,C41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OND#0006</v>
+        <v>HKD_YCRH_OND#0002</v>
       </c>
       <c r="G41" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2642,12 +2339,12 @@
         <f>$E$44&amp;"_Deposits.xml"</f>
         <v>HKD_YCONRH_Deposits.xml</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F46,SerializationPath&amp;E45,FileOverwrite,,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
       <c r="G45" s="50" t="str">
-        <f>_xll.ohRangeRetrieveError(F45)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
         <v/>
       </c>
     </row>
@@ -2670,7 +2367,7 @@
       </c>
       <c r="F46" s="40" t="str">
         <f>_xll.qlDepositRateHelper(E46,D46,C46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OND#0006</v>
+        <v>HKD_YCONRH_OND#0002</v>
       </c>
       <c r="G46" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2702,11 +2399,11 @@
       </c>
       <c r="F50" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F51:F55,SerializationPath&amp;E50,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="G50" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2718,9 +2415,8 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B51</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D51" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D28</f>
-        <v>=qlSimpleQuote(C28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D51" s="71" t="s">
+        <v>200</v>
       </c>
       <c r="E51" s="65" t="str">
         <f>$E$49&amp;"_"&amp;$B51&amp;"D"</f>
@@ -2732,7 +2428,7 @@
       </c>
       <c r="G51" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D28'</v>
       </c>
       <c r="J51" s="6" t="e">
         <f>_xll.ohObjectCallerAddress(D51)</f>
@@ -2748,9 +2444,8 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B52</f>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D52" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D31</f>
-        <v>=qlSimpleQuote(C31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D52" s="71" t="s">
+        <v>201</v>
       </c>
       <c r="E52" s="65" t="str">
         <f>$E$49&amp;"_"&amp;$B52&amp;"D"</f>
@@ -2762,7 +2457,7 @@
       </c>
       <c r="G52" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D31'</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2774,9 +2469,8 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B53</f>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D53" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D32</f>
-        <v>=qlSimpleQuote(C32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D53" s="71" t="s">
+        <v>202</v>
       </c>
       <c r="E53" s="65" t="str">
         <f>$E$49&amp;"_"&amp;$B53&amp;"D"</f>
@@ -2788,7 +2482,7 @@
       </c>
       <c r="G53" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D32'</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2800,9 +2494,8 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B54</f>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D54" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D33</f>
-        <v>=qlSimpleQuote(C33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D54" s="71" t="s">
+        <v>203</v>
       </c>
       <c r="E54" s="65" t="str">
         <f>$E$49&amp;"_"&amp;$B54&amp;"D"</f>
@@ -2814,7 +2507,7 @@
       </c>
       <c r="G54" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D33'</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,9 +2519,8 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B55</f>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D55" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D34</f>
-        <v>=qlSimpleQuote(C34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D55" s="71" t="s">
+        <v>204</v>
       </c>
       <c r="E55" s="65" t="str">
         <f>$E$49&amp;"_"&amp;$B55&amp;"D"</f>
@@ -2840,7 +2532,7 @@
       </c>
       <c r="G55" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D34'</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2868,11 +2560,11 @@
       </c>
       <c r="F59" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F60:F66,SerializationPath&amp;E59,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="G59" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2884,9 +2576,8 @@
         <f t="shared" ref="C60:C66" si="3">PROPER(Currency)&amp;FamilyName&amp;$B60</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D60" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D41</f>
-        <v>=qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D60" s="71" t="s">
+        <v>205</v>
       </c>
       <c r="E60" s="65" t="str">
         <f t="shared" ref="E60:E66" si="4">$E$58&amp;"_"&amp;$B60&amp;"D"</f>
@@ -2898,7 +2589,7 @@
       </c>
       <c r="G60" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D41'</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2910,9 +2601,8 @@
         <f t="shared" si="3"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D61" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D44</f>
-        <v>=qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D61" s="71" t="s">
+        <v>206</v>
       </c>
       <c r="E61" s="65" t="str">
         <f t="shared" si="4"/>
@@ -2924,7 +2614,7 @@
       </c>
       <c r="G61" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D44'</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2936,9 +2626,8 @@
         <f t="shared" si="3"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D62" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D45</f>
-        <v>=qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D62" s="71" t="s">
+        <v>207</v>
       </c>
       <c r="E62" s="65" t="str">
         <f t="shared" si="4"/>
@@ -2950,7 +2639,7 @@
       </c>
       <c r="G62" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D45'</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2962,9 +2651,8 @@
         <f t="shared" si="3"/>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D63" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D46</f>
-        <v>=qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D63" s="71" t="s">
+        <v>208</v>
       </c>
       <c r="E63" s="65" t="str">
         <f t="shared" si="4"/>
@@ -2976,7 +2664,7 @@
       </c>
       <c r="G63" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D46'</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2988,9 +2676,8 @@
         <f t="shared" si="3"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D64" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D47</f>
-        <v>=qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D64" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="E64" s="65" t="str">
         <f t="shared" si="4"/>
@@ -3002,7 +2689,7 @@
       </c>
       <c r="G64" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D47'</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3014,9 +2701,8 @@
         <f t="shared" si="3"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D65" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D48</f>
-        <v>=qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D65" s="71" t="s">
+        <v>210</v>
       </c>
       <c r="E65" s="65" t="str">
         <f t="shared" si="4"/>
@@ -3028,7 +2714,7 @@
       </c>
       <c r="G65" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D48'</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3040,9 +2726,8 @@
         <f t="shared" si="3"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D66" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D49</f>
-        <v>=qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D66" s="71" t="s">
+        <v>211</v>
       </c>
       <c r="E66" s="65" t="str">
         <f t="shared" si="4"/>
@@ -3054,7 +2739,7 @@
       </c>
       <c r="G66" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D49'</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3082,11 +2767,11 @@
       </c>
       <c r="F70" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F71:F80,SerializationPath&amp;E70,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="G70" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F70)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3098,9 +2783,8 @@
         <f t="shared" ref="C71:C80" si="5">PROPER(Currency)&amp;FamilyName&amp;$B71</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D71" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D57</f>
-        <v>=qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D71" s="71" t="s">
+        <v>212</v>
       </c>
       <c r="E71" s="65" t="str">
         <f t="shared" ref="E71:E80" si="6">$E$69&amp;"_"&amp;$B71&amp;"D"</f>
@@ -3112,7 +2796,7 @@
       </c>
       <c r="G71" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F71)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D57'</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3124,9 +2808,8 @@
         <f t="shared" si="5"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D72" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D60</f>
-        <v>=qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D72" s="71" t="s">
+        <v>213</v>
       </c>
       <c r="E72" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3138,7 +2821,7 @@
       </c>
       <c r="G72" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F72)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D60'</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3150,9 +2833,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D73" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D61</f>
-        <v>=qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D73" s="71" t="s">
+        <v>214</v>
       </c>
       <c r="E73" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3164,7 +2846,7 @@
       </c>
       <c r="G73" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F73)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D61'</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3176,9 +2858,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D74" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D62</f>
-        <v>=qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D74" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="E74" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3190,7 +2871,7 @@
       </c>
       <c r="G74" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F74)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D62'</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3202,9 +2883,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D75" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D63</f>
-        <v>=qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D75" s="71" t="s">
+        <v>216</v>
       </c>
       <c r="E75" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3216,7 +2896,7 @@
       </c>
       <c r="G75" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F75)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D63'</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3228,9 +2908,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D76" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D64</f>
-        <v>=qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D76" s="71" t="s">
+        <v>217</v>
       </c>
       <c r="E76" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3242,7 +2921,7 @@
       </c>
       <c r="G76" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F76)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D64'</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3254,9 +2933,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D77" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D65</f>
-        <v>=qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D77" s="71" t="s">
+        <v>218</v>
       </c>
       <c r="E77" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3268,7 +2946,7 @@
       </c>
       <c r="G77" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F77)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D65'</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3280,9 +2958,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor4M</v>
       </c>
-      <c r="D78" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D66</f>
-        <v>=qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D78" s="71" t="s">
+        <v>219</v>
       </c>
       <c r="E78" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3294,7 +2971,7 @@
       </c>
       <c r="G78" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F78)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D66'</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3306,9 +2983,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor5M</v>
       </c>
-      <c r="D79" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D67</f>
-        <v>=qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D79" s="71" t="s">
+        <v>220</v>
       </c>
       <c r="E79" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3320,7 +2996,7 @@
       </c>
       <c r="G79" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F79)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D67'</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3332,9 +3008,8 @@
         <f t="shared" si="5"/>
         <v>HkdHibor6M</v>
       </c>
-      <c r="D80" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D68</f>
-        <v>=qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D80" s="71" t="s">
+        <v>221</v>
       </c>
       <c r="E80" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3346,7 +3021,7 @@
       </c>
       <c r="G80" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F80)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D68'</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3374,11 +3049,11 @@
       </c>
       <c r="F84" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F85:F100,SerializationPath&amp;E84,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="G84" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F84)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3390,9 +3065,8 @@
         <f t="shared" ref="C85:C100" si="7">PROPER(Currency)&amp;FamilyName&amp;$B85</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D85" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D75</f>
-        <v>=qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D85" s="71" t="s">
+        <v>222</v>
       </c>
       <c r="E85" s="65" t="str">
         <f t="shared" ref="E85:E100" si="8">$E$83&amp;"_"&amp;$B85&amp;"D"</f>
@@ -3404,7 +3078,7 @@
       </c>
       <c r="G85" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F85)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D75'</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3416,9 +3090,8 @@
         <f t="shared" si="7"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D86" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D78</f>
-        <v>=qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D86" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="E86" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3430,7 +3103,7 @@
       </c>
       <c r="G86" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F86)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D78'</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3442,9 +3115,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D87" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D79</f>
-        <v>=qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D87" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="E87" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3456,7 +3128,7 @@
       </c>
       <c r="G87" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F87)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D79'</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3468,9 +3140,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D88" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D80</f>
-        <v>=qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D88" s="71" t="s">
+        <v>225</v>
       </c>
       <c r="E88" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3482,7 +3153,7 @@
       </c>
       <c r="G88" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F88)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D80'</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3494,9 +3165,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D89" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D81</f>
-        <v>=qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D89" s="71" t="s">
+        <v>226</v>
       </c>
       <c r="E89" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3508,7 +3178,7 @@
       </c>
       <c r="G89" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F89)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D81'</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3520,9 +3190,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D90" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D82</f>
-        <v>=qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D90" s="71" t="s">
+        <v>227</v>
       </c>
       <c r="E90" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3534,7 +3203,7 @@
       </c>
       <c r="G90" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F90)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D82'</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3546,9 +3215,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D91" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D83</f>
-        <v>=qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D91" s="71" t="s">
+        <v>228</v>
       </c>
       <c r="E91" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3560,7 +3228,7 @@
       </c>
       <c r="G91" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F91)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D83'</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3572,9 +3240,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor4M</v>
       </c>
-      <c r="D92" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D84</f>
-        <v>=qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D92" s="71" t="s">
+        <v>229</v>
       </c>
       <c r="E92" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3586,7 +3253,7 @@
       </c>
       <c r="G92" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F92)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D84'</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3598,9 +3265,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor5M</v>
       </c>
-      <c r="D93" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D85</f>
-        <v>=qlSimpleQuote(C85,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D93" s="71" t="s">
+        <v>230</v>
       </c>
       <c r="E93" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3612,7 +3278,7 @@
       </c>
       <c r="G93" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F93)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C85,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D85'</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3624,9 +3290,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor6M</v>
       </c>
-      <c r="D94" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D86</f>
-        <v>=qlSimpleQuote(C86,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D94" s="71" t="s">
+        <v>231</v>
       </c>
       <c r="E94" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3638,7 +3303,7 @@
       </c>
       <c r="G94" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F94)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C86,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D86'</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3650,9 +3315,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor7M</v>
       </c>
-      <c r="D95" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D87</f>
-        <v>=qlSimpleQuote(C87,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D95" s="71" t="s">
+        <v>232</v>
       </c>
       <c r="E95" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3664,7 +3328,7 @@
       </c>
       <c r="G95" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F95)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C87,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D87'</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3676,9 +3340,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor8M</v>
       </c>
-      <c r="D96" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D88</f>
-        <v>=qlSimpleQuote(C88,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D96" s="71" t="s">
+        <v>233</v>
       </c>
       <c r="E96" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3690,7 +3353,7 @@
       </c>
       <c r="G96" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F96)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C88,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D88'</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3702,9 +3365,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor9M</v>
       </c>
-      <c r="D97" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D89</f>
-        <v>=qlSimpleQuote(C89,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D97" s="71" t="s">
+        <v>234</v>
       </c>
       <c r="E97" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3716,7 +3378,7 @@
       </c>
       <c r="G97" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F97)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C89,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D89'</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3728,9 +3390,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor10M</v>
       </c>
-      <c r="D98" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D90</f>
-        <v>=qlSimpleQuote(C90,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D98" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="E98" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3742,7 +3403,7 @@
       </c>
       <c r="G98" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F98)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C90,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D90'</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3754,9 +3415,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor11M</v>
       </c>
-      <c r="D99" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D91</f>
-        <v>=qlSimpleQuote(C91,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D99" s="71" t="s">
+        <v>236</v>
       </c>
       <c r="E99" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3768,7 +3428,7 @@
       </c>
       <c r="G99" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F99)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C91,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D91'</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3780,9 +3440,8 @@
         <f t="shared" si="7"/>
         <v>HkdHibor1Y</v>
       </c>
-      <c r="D100" s="65" t="str">
-        <f>[1]HKD_015_SyntheticQuotes!D92</f>
-        <v>=qlSimpleQuote(C92,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</v>
+      <c r="D100" s="71" t="s">
+        <v>237</v>
       </c>
       <c r="E100" s="65" t="str">
         <f t="shared" si="8"/>
@@ -3794,7 +3453,7 @@
       </c>
       <c r="G100" s="45" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F100)</f>
-        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '=qlSimpleQuote(C92,,RateTickValue,Permanent,Trigger,ObjectOverwrite)'</v>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID '='C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\[Book4.xlsx]HKD_015_SyntheticQuotes'!D92'</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3803,7 +3462,7 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B12:E12"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
     </dataValidation>
@@ -3847,12 +3506,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3910,12 +3569,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -3985,12 +3644,12 @@
         <f>$G$19&amp;"_FRAs.xml"</f>
         <v>HKD_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H21:H22,SerializationPath&amp;G20,FileOverwrite,,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
       <c r="I20" s="63" t="str">
-        <f>_xll.ohRangeRetrieveError(H20)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H20)</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +3677,7 @@
       </c>
       <c r="H21" s="40" t="str">
         <f>_xll.qlFraRateHelper(G21,F21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_TND#0006</v>
+        <v>HKD_YCSTDRH_TND#0003</v>
       </c>
       <c r="I21" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -4049,7 +3708,7 @@
       </c>
       <c r="H22" s="40" t="str">
         <f>_xll.qlFraRateHelper(G22,F22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SND#0006</v>
+        <v>HKD_YCSTDRH_SND#0003</v>
       </c>
       <c r="I22" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -4084,12 +3743,12 @@
         <f>$G$25&amp;"_FRAs.xml"</f>
         <v>HKD_YCRH_FRAs.xml</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H27:H28,SerializationPath&amp;G26,FileOverwrite,,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="63" t="str">
-        <f>_xll.ohRangeRetrieveError(H26)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H26)</f>
         <v/>
       </c>
     </row>
@@ -4117,7 +3776,7 @@
       </c>
       <c r="H27" s="40" t="str">
         <f>_xll.qlFraRateHelper(G27,F27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_TND#0006</v>
+        <v>HKD_YCRH_TND#0003</v>
       </c>
       <c r="I27" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -4148,7 +3807,7 @@
       </c>
       <c r="H28" s="40" t="str">
         <f>_xll.qlFraRateHelper(G28,F28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_SND#0006</v>
+        <v>HKD_YCRH_SND#0003</v>
       </c>
       <c r="I28" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -4185,12 +3844,12 @@
         <f>$G$31&amp;"_FRAs.xml"</f>
         <v>HKD_YCONRH_FRAs.xml</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H33:H34,SerializationPath&amp;G32,FileOverwrite,,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="63" t="str">
-        <f>_xll.ohRangeRetrieveError(H32)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H32)</f>
         <v/>
       </c>
     </row>
@@ -4218,7 +3877,7 @@
       </c>
       <c r="H33" s="40" t="str">
         <f>_xll.qlFraRateHelper(G33,F33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_TND#0006</v>
+        <v>HKD_YCONRH_TND#0003</v>
       </c>
       <c r="I33" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -4249,7 +3908,7 @@
       </c>
       <c r="H34" s="40" t="str">
         <f>_xll.qlFraRateHelper(G34,F34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_SND#0006</v>
+        <v>HKD_YCONRH_SND#0003</v>
       </c>
       <c r="I34" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -4292,11 +3951,11 @@
       </c>
       <c r="H38" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H39:H40,SerializationPath&amp;G38,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="63" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H38)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4401,11 +4060,11 @@
       </c>
       <c r="H44" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H45:H55,SerializationPath&amp;G44,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="I44" s="63" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H44)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4501,7 +4160,7 @@
       </c>
       <c r="H47" s="40" t="str">
         <f>_xll.qlFraRateHelper(G47,F47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1x4F#0006</v>
+        <v>HKD_YC3MRH_1x4F#0003</v>
       </c>
       <c r="I47" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H47)</f>
@@ -4535,7 +4194,7 @@
       </c>
       <c r="H48" s="40" t="str">
         <f>_xll.qlFraRateHelper(G48,F48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2x5F#0006</v>
+        <v>HKD_YC3MRH_2x5F#0003</v>
       </c>
       <c r="I48" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H48)</f>
@@ -4569,7 +4228,7 @@
       </c>
       <c r="H49" s="40" t="str">
         <f>_xll.qlFraRateHelper(G49,F49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3x6F#0006</v>
+        <v>HKD_YC3MRH_3x6F#0003</v>
       </c>
       <c r="I49" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H49)</f>
@@ -4603,7 +4262,7 @@
       </c>
       <c r="H50" s="40" t="str">
         <f>_xll.qlFraRateHelper(G50,F50,B50,E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_4x7F#0006</v>
+        <v>HKD_YC3MRH_4x7F#0003</v>
       </c>
       <c r="I50" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H50)</f>
@@ -4637,7 +4296,7 @@
       </c>
       <c r="H51" s="40" t="str">
         <f>_xll.qlFraRateHelper(G51,F51,B51,E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_5x8F#0006</v>
+        <v>HKD_YC3MRH_5x8F#0003</v>
       </c>
       <c r="I51" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H51)</f>
@@ -4671,7 +4330,7 @@
       </c>
       <c r="H52" s="40" t="str">
         <f>_xll.qlFraRateHelper(G52,F52,B52,E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_6x9F#0006</v>
+        <v>HKD_YC3MRH_6x9F#0003</v>
       </c>
       <c r="I52" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H52)</f>
@@ -4705,7 +4364,7 @@
       </c>
       <c r="H53" s="40" t="str">
         <f>_xll.qlFraRateHelper(G53,F53,B53,E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_7x10F#0006</v>
+        <v>HKD_YC3MRH_7x10F#0003</v>
       </c>
       <c r="I53" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H53)</f>
@@ -4739,7 +4398,7 @@
       </c>
       <c r="H54" s="40" t="str">
         <f>_xll.qlFraRateHelper(G54,F54,B54,E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_8x11F#0006</v>
+        <v>HKD_YC3MRH_8x11F#0003</v>
       </c>
       <c r="I54" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H54)</f>
@@ -4773,7 +4432,7 @@
       </c>
       <c r="H55" s="40" t="str">
         <f>_xll.qlFraRateHelper(G55,F55,B55,E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_9x12F#0006</v>
+        <v>HKD_YC3MRH_9x12F#0003</v>
       </c>
       <c r="I55" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(H55)</f>
@@ -4821,11 +4480,11 @@
       </c>
       <c r="I59" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I60:I79,SerializationPath&amp;H59,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J59" s="63" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I59)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4930,7 +4589,7 @@
       </c>
       <c r="I62" s="40" t="str">
         <f>_xll.qlFraRateHelper(H62,G62,B62,E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0006</v>
+        <v>HKD_YC6MRH_1x7F#0003</v>
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -4967,7 +4626,7 @@
       </c>
       <c r="I63" s="40" t="str">
         <f>_xll.qlFraRateHelper(H63,G63,B63,E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0006</v>
+        <v>HKD_YC6MRH_2x8F#0003</v>
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -5004,7 +4663,7 @@
       </c>
       <c r="I64" s="40" t="str">
         <f>_xll.qlFraRateHelper(H64,G64,B64,E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0006</v>
+        <v>HKD_YC6MRH_3x9F#0003</v>
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -5041,7 +4700,7 @@
       </c>
       <c r="I65" s="40" t="str">
         <f>_xll.qlFraRateHelper(H65,G65,B65,E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0006</v>
+        <v>HKD_YC6MRH_4x10F#0003</v>
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -5078,7 +4737,7 @@
       </c>
       <c r="I66" s="40" t="str">
         <f>_xll.qlFraRateHelper(H66,G66,B66,E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0006</v>
+        <v>HKD_YC6MRH_5x11F#0003</v>
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -5115,7 +4774,7 @@
       </c>
       <c r="I67" s="40" t="str">
         <f>_xll.qlFraRateHelper(H67,G67,B67,E67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0006</v>
+        <v>HKD_YC6MRH_6x12F#0003</v>
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -5337,7 +4996,7 @@
       </c>
       <c r="I73" s="40" t="str">
         <f>_xll.qlFraRateHelper(H73,G73,B73,E73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0006</v>
+        <v>HKD_YC6MRH_12x18F#0003</v>
       </c>
       <c r="J73" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -5559,7 +5218,7 @@
       </c>
       <c r="I79" s="40" t="str">
         <f>_xll.qlFraRateHelper(H79,G79,B79,E79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0006</v>
+        <v>HKD_YC6MRH_18x24F#0003</v>
       </c>
       <c r="J79" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -5607,11 +5266,11 @@
       </c>
       <c r="I83" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I84:I130,SerializationPath&amp;H83,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J83" s="63" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I83)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7399,12 +7058,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7462,12 +7121,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -7556,11 +7215,11 @@
       </c>
       <c r="I20" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I21:I140,SerializationPath&amp;H20,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J20" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7593,7 +7252,7 @@
       </c>
       <c r="I21" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX3#0006</v>
+        <v>HKD_YCSTDRH_FUT3MX3#0002</v>
       </c>
       <c r="J21" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -7630,7 +7289,7 @@
       </c>
       <c r="I22" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ3#0006</v>
+        <v>HKD_YCSTDRH_FUT3MZ3#0002</v>
       </c>
       <c r="J22" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -7667,7 +7326,7 @@
       </c>
       <c r="I23" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF4#0006</v>
+        <v>HKD_YCSTDRH_FUT3MF4#0002</v>
       </c>
       <c r="J23" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -7741,7 +7400,7 @@
       </c>
       <c r="I25" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH4#0006</v>
+        <v>HKD_YCSTDRH_FUT3MH4#0002</v>
       </c>
       <c r="J25" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -7852,7 +7511,7 @@
       </c>
       <c r="I28" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM4#0006</v>
+        <v>HKD_YCSTDRH_FUT3MM4#0002</v>
       </c>
       <c r="J28" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -7963,7 +7622,7 @@
       </c>
       <c r="I31" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU4#0006</v>
+        <v>HKD_YCSTDRH_FUT3MU4#0002</v>
       </c>
       <c r="J31" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -11972,11 +11631,11 @@
       </c>
       <c r="I144" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I145:I264,SerializationPath&amp;H144,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J144" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I144)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -16388,11 +16047,11 @@
       </c>
       <c r="I268" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I269:I388,SerializationPath&amp;H268,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="J268" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I268)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="269" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -16425,7 +16084,7 @@
       </c>
       <c r="I269" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H269,$F269,$D269,$E269,$G269,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX3#0006</v>
+        <v>HKD_YC3MRH_FUT3MX3#0002</v>
       </c>
       <c r="J269" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I269)</f>
@@ -16462,7 +16121,7 @@
       </c>
       <c r="I270" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H270,$F270,$D270,$E270,$G270,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ3#0006</v>
+        <v>HKD_YC3MRH_FUT3MZ3#0002</v>
       </c>
       <c r="J270" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I270)</f>
@@ -16499,7 +16158,7 @@
       </c>
       <c r="I271" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H271,$F271,$D271,$E271,$G271,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF4#0006</v>
+        <v>HKD_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="J271" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I271)</f>
@@ -16573,7 +16232,7 @@
       </c>
       <c r="I273" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H273,$F273,$D273,$E273,$G273,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH4#0006</v>
+        <v>HKD_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="J273" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I273)</f>
@@ -16684,7 +16343,7 @@
       </c>
       <c r="I276" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H276,$F276,$D276,$E276,$G276,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM4#0006</v>
+        <v>HKD_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J276" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I276)</f>
@@ -16795,7 +16454,7 @@
       </c>
       <c r="I279" s="56" t="str">
         <f>_xll.qlFuturesRateHelper(H279,$F279,$D279,$E279,$G279,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU4#0006</v>
+        <v>HKD_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J279" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I279)</f>
@@ -20802,11 +20461,11 @@
       </c>
       <c r="H392" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H393:H512,SerializationPath&amp;G392,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="I392" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H392)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
     </row>
     <row r="393" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -24754,12 +24413,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -24817,12 +24476,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -24973,11 +24632,11 @@
       </c>
       <c r="L26" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L27:L65,SerializationPath&amp;K26,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M26" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N26" s="42"/>
       <c r="S26" s="46" t="s">
@@ -25003,7 +24662,7 @@
       </c>
       <c r="L27" s="6" t="str">
         <f>_xll.qlIborIndex(K27,FamilyName,J25,S27,Currency,T27,U27,V27,W27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H_Hibor3M#0006</v>
+        <v>HKD_YCSTDRH_QM3H_Hibor3M#0003</v>
       </c>
       <c r="M27" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -26796,11 +26455,11 @@
       </c>
       <c r="L70" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L71:L162),SerializationPath&amp;K70,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M70" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N70" s="42"/>
     </row>
@@ -26811,7 +26470,7 @@
       </c>
       <c r="L71" s="6" t="str">
         <f>_xll.qlEonia(K71,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS_Hibor#0006</v>
+        <v>HKD_YCRH_OIS_Hibor#0003</v>
       </c>
       <c r="M71" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L71)</f>
@@ -27010,7 +26669,7 @@
       </c>
       <c r="L76" s="44" t="str">
         <f>_xll.qlOISRateHelper(K76,2,C76,J76,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1M#0006</v>
+        <v>HKD_YCRH_OIS1M#0002</v>
       </c>
       <c r="M76" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L76)</f>
@@ -27061,7 +26720,7 @@
       </c>
       <c r="L77" s="44" t="str">
         <f>_xll.qlOISRateHelper(K77,2,C77,J77,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2M#0006</v>
+        <v>HKD_YCRH_OIS2M#0002</v>
       </c>
       <c r="M77" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L77)</f>
@@ -27112,7 +26771,7 @@
       </c>
       <c r="L78" s="44" t="str">
         <f>_xll.qlOISRateHelper(K78,2,C78,J78,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3M#0006</v>
+        <v>HKD_YCRH_OIS3M#0002</v>
       </c>
       <c r="M78" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L78)</f>
@@ -27163,7 +26822,7 @@
       </c>
       <c r="L79" s="44" t="str">
         <f>_xll.qlOISRateHelper(K79,2,C79,J79,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS4M#0006</v>
+        <v>HKD_YCRH_OIS4M#0002</v>
       </c>
       <c r="M79" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L79)</f>
@@ -27214,7 +26873,7 @@
       </c>
       <c r="L80" s="44" t="str">
         <f>_xll.qlOISRateHelper(K80,2,C80,J80,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS5M#0006</v>
+        <v>HKD_YCRH_OIS5M#0002</v>
       </c>
       <c r="M80" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L80)</f>
@@ -27265,7 +26924,7 @@
       </c>
       <c r="L81" s="44" t="str">
         <f>_xll.qlOISRateHelper(K81,2,C81,J81,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS6M#0006</v>
+        <v>HKD_YCRH_OIS6M#0002</v>
       </c>
       <c r="M81" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L81)</f>
@@ -27418,7 +27077,7 @@
       </c>
       <c r="L84" s="44" t="str">
         <f>_xll.qlOISRateHelper(K84,2,C84,J84,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS9M#0006</v>
+        <v>HKD_YCRH_OIS9M#0002</v>
       </c>
       <c r="M84" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L84)</f>
@@ -27571,7 +27230,7 @@
       </c>
       <c r="L87" s="44" t="str">
         <f>_xll.qlOISRateHelper(K87,2,C87,J87,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1Y#0006</v>
+        <v>HKD_YCRH_OIS1Y#0002</v>
       </c>
       <c r="M87" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L87)</f>
@@ -31365,11 +31024,11 @@
       </c>
       <c r="L168" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L169:L260),SerializationPath&amp;K168,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M168" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L168)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N168" s="42"/>
     </row>
@@ -31380,7 +31039,7 @@
       </c>
       <c r="L169" s="6" t="str">
         <f>_xll.qlEonia(K169,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS_HiborON#0006</v>
+        <v>HKD_YCONRH_OIS_HiborON#0003</v>
       </c>
       <c r="M169" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L169)</f>
@@ -31582,7 +31241,7 @@
       </c>
       <c r="L174" s="44" t="str">
         <f>_xll.qlOISRateHelper(K174,2,C174,J174,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1M#0006</v>
+        <v>HKD_YCONRH_OIS1M#0002</v>
       </c>
       <c r="M174" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L174)</f>
@@ -31634,7 +31293,7 @@
       </c>
       <c r="L175" s="44" t="str">
         <f>_xll.qlOISRateHelper(K175,2,C175,J175,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2M#0006</v>
+        <v>HKD_YCONRH_OIS2M#0002</v>
       </c>
       <c r="M175" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L175)</f>
@@ -31686,7 +31345,7 @@
       </c>
       <c r="L176" s="44" t="str">
         <f>_xll.qlOISRateHelper(K176,2,C176,J176,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3M#0006</v>
+        <v>HKD_YCONRH_OIS3M#0002</v>
       </c>
       <c r="M176" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L176)</f>
@@ -31738,7 +31397,7 @@
       </c>
       <c r="L177" s="44" t="str">
         <f>_xll.qlOISRateHelper(K177,2,C177,J177,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS4M#0006</v>
+        <v>HKD_YCONRH_OIS4M#0002</v>
       </c>
       <c r="M177" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L177)</f>
@@ -31790,7 +31449,7 @@
       </c>
       <c r="L178" s="44" t="str">
         <f>_xll.qlOISRateHelper(K178,2,C178,J178,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS5M#0006</v>
+        <v>HKD_YCONRH_OIS5M#0002</v>
       </c>
       <c r="M178" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L178)</f>
@@ -31842,7 +31501,7 @@
       </c>
       <c r="L179" s="44" t="str">
         <f>_xll.qlOISRateHelper(K179,2,C179,J179,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS6M#0006</v>
+        <v>HKD_YCONRH_OIS6M#0002</v>
       </c>
       <c r="M179" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L179)</f>
@@ -31998,7 +31657,7 @@
       </c>
       <c r="L182" s="44" t="str">
         <f>_xll.qlOISRateHelper(K182,2,C182,J182,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS9M#0006</v>
+        <v>HKD_YCONRH_OIS9M#0002</v>
       </c>
       <c r="M182" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L182)</f>
@@ -32154,7 +31813,7 @@
       </c>
       <c r="L185" s="44" t="str">
         <f>_xll.qlOISRateHelper(K185,2,C185,J185,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1Y#0006</v>
+        <v>HKD_YCONRH_OIS1Y#0002</v>
       </c>
       <c r="M185" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L185)</f>
@@ -36009,11 +35668,11 @@
       </c>
       <c r="L265" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L266:L278,SerializationPath&amp;K265,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M265" s="50" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L265)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N265" s="42"/>
       <c r="S265" s="46" t="s">
@@ -36039,7 +35698,7 @@
       </c>
       <c r="L266" s="6" t="str">
         <f>_xll.qlIborIndex(K266,FamilyName,J264,S266,Currency,T266,U266,V266,W266,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0006</v>
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0003</v>
       </c>
       <c r="M266" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L266)</f>
@@ -36630,11 +36289,11 @@
       </c>
       <c r="L284" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L285:L331,SerializationPath&amp;K284,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M284" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L284)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N284" s="42"/>
       <c r="S284" s="46" t="s">
@@ -36660,7 +36319,7 @@
       </c>
       <c r="L285" s="6" t="str">
         <f>_xll.qlIborIndex(K285,FamilyName,J283,S285,Currency,T285,U285,V285,W285,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H_Hibor3M#0006</v>
+        <v>HKD_YC3MRH_QM3H_Hibor3M#0003</v>
       </c>
       <c r="M285" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L285)</f>
@@ -38756,11 +38415,11 @@
       </c>
       <c r="L336" s="47" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L337:L375,SerializationPath&amp;K336,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="M336" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L336)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N336" s="42"/>
       <c r="S336" s="46" t="s">
@@ -38786,7 +38445,7 @@
       </c>
       <c r="L337" s="6" t="str">
         <f>_xll.qlIborIndex(K337,FamilyName,J335,S337,Currency,T337,U337,V337,W337,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_QM3H_Hibor6M#0006</v>
+        <v>HKD_YC6MRH_QM3H_Hibor6M#0003</v>
       </c>
       <c r="M337" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L337)</f>
@@ -40634,11 +40293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="33" t="s">
         <v>140</v>
       </c>
@@ -45741,10 +45400,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="6"/>
       <c r="D1" s="33" t="s">
         <v>45</v>
@@ -45942,7 +45601,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_RateHelpersSelected#0006</v>
+        <v>HKD_YCRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -49019,7 +48678,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49033,7 +48692,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="str">
+      <c r="B1" s="68" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov 12 2013 12:02:30</v>
       </c>
@@ -49148,8 +48807,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="11" t="s">
@@ -49157,7 +48820,7 @@
       </c>
       <c r="D15" s="12" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D17,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D23),NA(),D21:E21),IF(ISERROR(D23),NA(),D22:E22),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC#0006</v>
+        <v>_HKDYC#0000</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">

--- a/QuantLibXL/Data2/Book5.xlsx
+++ b/QuantLibXL/Data2/Book5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HKD_YCRH_Deposits" sheetId="10" r:id="rId1"/>
@@ -1342,14 +1342,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1673,7 +1673,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="D85" sqref="D85:D100"/>
     </sheetView>
   </sheetViews>
@@ -1695,12 +1695,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1758,12 +1758,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -1861,13 +1861,13 @@
         <f t="shared" ref="E21:E36" si="2">$E$19&amp;"_"&amp;$B21&amp;"D"</f>
         <v>HKD_YCSTDRH_OND</v>
       </c>
-      <c r="F21" s="40" t="str">
+      <c r="F21" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E21,D21,C21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_OND#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G21" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F21)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborONLastFixing_Quote'</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1887,13 +1887,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_SWD</v>
       </c>
-      <c r="F22" s="40" t="str">
+      <c r="F22" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E22,D22,C22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SWD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G22" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F22)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSWLastFixing_Quote'</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1913,13 +1913,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_2WD</v>
       </c>
-      <c r="F23" s="40" t="str">
+      <c r="F23" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E23,D23,C23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2WD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G23" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor2WLastFixing_Quote'</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1939,13 +1939,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_3WD</v>
       </c>
-      <c r="F24" s="40" t="str">
+      <c r="F24" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E24,D24,C24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3WD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G24" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F24)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3WLastFixing_Quote'</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1965,13 +1965,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_1MD</v>
       </c>
-      <c r="F25" s="40" t="str">
+      <c r="F25" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E25,D25,C25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G25" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F25)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor1MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1991,13 +1991,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_2MD</v>
       </c>
-      <c r="F26" s="40" t="str">
+      <c r="F26" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E26,D26,C26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G26" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F26)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor2MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2017,13 +2017,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_3MD</v>
       </c>
-      <c r="F27" s="40" t="str">
+      <c r="F27" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E27,D27,C27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G27" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F27)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2043,13 +2043,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_4MD</v>
       </c>
-      <c r="F28" s="40" t="str">
+      <c r="F28" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E28,D28,C28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_4MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G28" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F28)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor4MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2069,13 +2069,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_5MD</v>
       </c>
-      <c r="F29" s="40" t="str">
+      <c r="F29" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E29,D29,C29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_5MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G29" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F29)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor5MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2095,13 +2095,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_6MD</v>
       </c>
-      <c r="F30" s="40" t="str">
+      <c r="F30" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E30,D30,C30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_6MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G30" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F30)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2121,13 +2121,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_7MD</v>
       </c>
-      <c r="F31" s="40" t="str">
+      <c r="F31" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E31,D31,C31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_7MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G31" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F31)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor7MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2147,13 +2147,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_8MD</v>
       </c>
-      <c r="F32" s="40" t="str">
+      <c r="F32" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E32,D32,C32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_8MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G32" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F32)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor8MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2173,13 +2173,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_9MD</v>
       </c>
-      <c r="F33" s="40" t="str">
+      <c r="F33" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E33,D33,C33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_9MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G33" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F33)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor9MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2199,13 +2199,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_10MD</v>
       </c>
-      <c r="F34" s="40" t="str">
+      <c r="F34" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E34,D34,C34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_10MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G34" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F34)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor10MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2225,13 +2225,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_11MD</v>
       </c>
-      <c r="F35" s="40" t="str">
+      <c r="F35" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E35,D35,C35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_11MD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G35" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F35)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor11MLastFixing_Quote'</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2251,13 +2251,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_1YD</v>
       </c>
-      <c r="F36" s="40" t="str">
+      <c r="F36" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E36,D36,C36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1YD#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G36" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F36)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor1YLastFixing_Quote'</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2307,13 +2307,13 @@
         <f>$E$39&amp;"_"&amp;$B41&amp;"D"</f>
         <v>HKD_YCRH_OND</v>
       </c>
-      <c r="F41" s="40" t="str">
+      <c r="F41" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E41,D41,C41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OND#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G41" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F41)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborONLastFixing_Quote'</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2365,13 +2365,13 @@
         <f>$E$44&amp;"_"&amp;$B46&amp;"D"</f>
         <v>HKD_YCONRH_OND</v>
       </c>
-      <c r="F46" s="40" t="str">
+      <c r="F46" s="40" t="e">
         <f>_xll.qlDepositRateHelper(E46,D46,C46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OND#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="G46" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(F46)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
+        <v>qlDepositRateHelper - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborONLastFixing_Quote'</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2415,7 +2415,7 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B51</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="69" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="65" t="str">
@@ -2444,7 +2444,7 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B52</f>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="69" t="s">
         <v>201</v>
       </c>
       <c r="E52" s="65" t="str">
@@ -2469,7 +2469,7 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B53</f>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="69" t="s">
         <v>202</v>
       </c>
       <c r="E53" s="65" t="str">
@@ -2494,7 +2494,7 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B54</f>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="69" t="s">
         <v>203</v>
       </c>
       <c r="E54" s="65" t="str">
@@ -2519,7 +2519,7 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;$B55</f>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="69" t="s">
         <v>204</v>
       </c>
       <c r="E55" s="65" t="str">
@@ -2576,7 +2576,7 @@
         <f t="shared" ref="C60:C66" si="3">PROPER(Currency)&amp;FamilyName&amp;$B60</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="69" t="s">
         <v>205</v>
       </c>
       <c r="E60" s="65" t="str">
@@ -2601,7 +2601,7 @@
         <f t="shared" si="3"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="69" t="s">
         <v>206</v>
       </c>
       <c r="E61" s="65" t="str">
@@ -2626,7 +2626,7 @@
         <f t="shared" si="3"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="69" t="s">
         <v>207</v>
       </c>
       <c r="E62" s="65" t="str">
@@ -2651,7 +2651,7 @@
         <f t="shared" si="3"/>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D63" s="71" t="s">
+      <c r="D63" s="69" t="s">
         <v>208</v>
       </c>
       <c r="E63" s="65" t="str">
@@ -2676,7 +2676,7 @@
         <f t="shared" si="3"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="69" t="s">
         <v>209</v>
       </c>
       <c r="E64" s="65" t="str">
@@ -2701,7 +2701,7 @@
         <f t="shared" si="3"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="69" t="s">
         <v>210</v>
       </c>
       <c r="E65" s="65" t="str">
@@ -2726,7 +2726,7 @@
         <f t="shared" si="3"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="69" t="s">
         <v>211</v>
       </c>
       <c r="E66" s="65" t="str">
@@ -2783,7 +2783,7 @@
         <f t="shared" ref="C71:C80" si="5">PROPER(Currency)&amp;FamilyName&amp;$B71</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="69" t="s">
         <v>212</v>
       </c>
       <c r="E71" s="65" t="str">
@@ -2808,7 +2808,7 @@
         <f t="shared" si="5"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="69" t="s">
         <v>213</v>
       </c>
       <c r="E72" s="65" t="str">
@@ -2833,7 +2833,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="69" t="s">
         <v>214</v>
       </c>
       <c r="E73" s="65" t="str">
@@ -2858,7 +2858,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="69" t="s">
         <v>215</v>
       </c>
       <c r="E74" s="65" t="str">
@@ -2883,7 +2883,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D75" s="71" t="s">
+      <c r="D75" s="69" t="s">
         <v>216</v>
       </c>
       <c r="E75" s="65" t="str">
@@ -2908,7 +2908,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="69" t="s">
         <v>217</v>
       </c>
       <c r="E76" s="65" t="str">
@@ -2933,7 +2933,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="69" t="s">
         <v>218</v>
       </c>
       <c r="E77" s="65" t="str">
@@ -2958,7 +2958,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor4M</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="69" t="s">
         <v>219</v>
       </c>
       <c r="E78" s="65" t="str">
@@ -2983,7 +2983,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor5M</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="69" t="s">
         <v>220</v>
       </c>
       <c r="E79" s="65" t="str">
@@ -3008,7 +3008,7 @@
         <f t="shared" si="5"/>
         <v>HkdHibor6M</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="69" t="s">
         <v>221</v>
       </c>
       <c r="E80" s="65" t="str">
@@ -3065,7 +3065,7 @@
         <f t="shared" ref="C85:C100" si="7">PROPER(Currency)&amp;FamilyName&amp;$B85</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D85" s="71" t="s">
+      <c r="D85" s="69" t="s">
         <v>222</v>
       </c>
       <c r="E85" s="65" t="str">
@@ -3090,7 +3090,7 @@
         <f t="shared" si="7"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D86" s="69" t="s">
         <v>223</v>
       </c>
       <c r="E86" s="65" t="str">
@@ -3115,7 +3115,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D87" s="71" t="s">
+      <c r="D87" s="69" t="s">
         <v>224</v>
       </c>
       <c r="E87" s="65" t="str">
@@ -3140,7 +3140,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor3W</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D88" s="69" t="s">
         <v>225</v>
       </c>
       <c r="E88" s="65" t="str">
@@ -3165,7 +3165,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="69" t="s">
         <v>226</v>
       </c>
       <c r="E89" s="65" t="str">
@@ -3190,7 +3190,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="69" t="s">
         <v>227</v>
       </c>
       <c r="E90" s="65" t="str">
@@ -3215,7 +3215,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="69" t="s">
         <v>228</v>
       </c>
       <c r="E91" s="65" t="str">
@@ -3240,7 +3240,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor4M</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="69" t="s">
         <v>229</v>
       </c>
       <c r="E92" s="65" t="str">
@@ -3265,7 +3265,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor5M</v>
       </c>
-      <c r="D93" s="71" t="s">
+      <c r="D93" s="69" t="s">
         <v>230</v>
       </c>
       <c r="E93" s="65" t="str">
@@ -3290,7 +3290,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor6M</v>
       </c>
-      <c r="D94" s="71" t="s">
+      <c r="D94" s="69" t="s">
         <v>231</v>
       </c>
       <c r="E94" s="65" t="str">
@@ -3315,7 +3315,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor7M</v>
       </c>
-      <c r="D95" s="71" t="s">
+      <c r="D95" s="69" t="s">
         <v>232</v>
       </c>
       <c r="E95" s="65" t="str">
@@ -3340,7 +3340,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor8M</v>
       </c>
-      <c r="D96" s="71" t="s">
+      <c r="D96" s="69" t="s">
         <v>233</v>
       </c>
       <c r="E96" s="65" t="str">
@@ -3365,7 +3365,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor9M</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="69" t="s">
         <v>234</v>
       </c>
       <c r="E97" s="65" t="str">
@@ -3390,7 +3390,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor10M</v>
       </c>
-      <c r="D98" s="71" t="s">
+      <c r="D98" s="69" t="s">
         <v>235</v>
       </c>
       <c r="E98" s="65" t="str">
@@ -3415,7 +3415,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor11M</v>
       </c>
-      <c r="D99" s="71" t="s">
+      <c r="D99" s="69" t="s">
         <v>236</v>
       </c>
       <c r="E99" s="65" t="str">
@@ -3440,7 +3440,7 @@
         <f t="shared" si="7"/>
         <v>HkdHibor1Y</v>
       </c>
-      <c r="D100" s="71" t="s">
+      <c r="D100" s="69" t="s">
         <v>237</v>
       </c>
       <c r="E100" s="65" t="str">
@@ -3506,12 +3506,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3569,12 +3569,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="H21" s="40" t="str">
         <f>_xll.qlFraRateHelper(G21,F21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_TND#0003</v>
+        <v>HKD_YCSTDRH_TND#0001</v>
       </c>
       <c r="I21" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="H22" s="40" t="str">
         <f>_xll.qlFraRateHelper(G22,F22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SND#0003</v>
+        <v>HKD_YCSTDRH_SND#0001</v>
       </c>
       <c r="I22" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="H27" s="40" t="str">
         <f>_xll.qlFraRateHelper(G27,F27,B27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_TND#0003</v>
+        <v>HKD_YCRH_TND#0001</v>
       </c>
       <c r="I27" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H28" s="40" t="str">
         <f>_xll.qlFraRateHelper(G28,F28,B28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_SND#0003</v>
+        <v>HKD_YCRH_SND#0001</v>
       </c>
       <c r="I28" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H33" s="40" t="str">
         <f>_xll.qlFraRateHelper(G33,F33,B33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_TND#0003</v>
+        <v>HKD_YCONRH_TND#0001</v>
       </c>
       <c r="I33" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H34" s="40" t="str">
         <f>_xll.qlFraRateHelper(G34,F34,B34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_SND#0003</v>
+        <v>HKD_YCONRH_SND#0001</v>
       </c>
       <c r="I34" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -4158,13 +4158,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_1x4F</v>
       </c>
-      <c r="H47" s="40" t="str">
+      <c r="H47" s="40" t="e">
         <f>_xll.qlFraRateHelper(G47,F47,B47,E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1x4F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I47" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H47)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H47)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4192,13 +4192,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_2x5F</v>
       </c>
-      <c r="H48" s="40" t="str">
+      <c r="H48" s="40" t="e">
         <f>_xll.qlFraRateHelper(G48,F48,B48,E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2x5F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I48" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H48)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H48)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4226,13 +4226,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_3x6F</v>
       </c>
-      <c r="H49" s="40" t="str">
+      <c r="H49" s="40" t="e">
         <f>_xll.qlFraRateHelper(G49,F49,B49,E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3x6F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I49" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H49)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H49)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4260,13 +4260,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_4x7F</v>
       </c>
-      <c r="H50" s="40" t="str">
+      <c r="H50" s="40" t="e">
         <f>_xll.qlFraRateHelper(G50,F50,B50,E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_4x7F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I50" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H50)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H50)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4294,13 +4294,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_5x8F</v>
       </c>
-      <c r="H51" s="40" t="str">
+      <c r="H51" s="40" t="e">
         <f>_xll.qlFraRateHelper(G51,F51,B51,E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_5x8F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I51" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H51)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H51)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4328,13 +4328,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_6x9F</v>
       </c>
-      <c r="H52" s="40" t="str">
+      <c r="H52" s="40" t="e">
         <f>_xll.qlFraRateHelper(G52,F52,B52,E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_6x9F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I52" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H52)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H52)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4362,13 +4362,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_7x10F</v>
       </c>
-      <c r="H53" s="40" t="str">
+      <c r="H53" s="40" t="e">
         <f>_xll.qlFraRateHelper(G53,F53,B53,E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_7x10F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I53" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H53)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H53)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4396,13 +4396,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_8x11F</v>
       </c>
-      <c r="H54" s="40" t="str">
+      <c r="H54" s="40" t="e">
         <f>_xll.qlFraRateHelper(G54,F54,B54,E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_8x11F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I54" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H54)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H54)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4430,13 +4430,13 @@
         <f t="shared" si="2"/>
         <v>HKD_YC3MRH_9x12F</v>
       </c>
-      <c r="H55" s="40" t="str">
+      <c r="H55" s="40" t="e">
         <f>_xll.qlFraRateHelper(G55,F55,B55,E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_9x12F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="I55" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(H55)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H55)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4587,13 +4587,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_1x7F</v>
       </c>
-      <c r="I62" s="40" t="str">
+      <c r="I62" s="40" t="e">
         <f>_xll.qlFraRateHelper(H62,G62,B62,E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J62" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I62)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I62)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4624,13 +4624,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_2x8F</v>
       </c>
-      <c r="I63" s="40" t="str">
+      <c r="I63" s="40" t="e">
         <f>_xll.qlFraRateHelper(H63,G63,B63,E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J63" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I63)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I63)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4661,13 +4661,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_3x9F</v>
       </c>
-      <c r="I64" s="40" t="str">
+      <c r="I64" s="40" t="e">
         <f>_xll.qlFraRateHelper(H64,G64,B64,E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J64" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I64)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I64)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4698,13 +4698,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_4x10F</v>
       </c>
-      <c r="I65" s="40" t="str">
+      <c r="I65" s="40" t="e">
         <f>_xll.qlFraRateHelper(H65,G65,B65,E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J65" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I65)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I65)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4735,13 +4735,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_5x11F</v>
       </c>
-      <c r="I66" s="40" t="str">
+      <c r="I66" s="40" t="e">
         <f>_xll.qlFraRateHelper(H66,G66,B66,E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J66" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I66)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I66)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4772,13 +4772,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_6x12F</v>
       </c>
-      <c r="I67" s="40" t="str">
+      <c r="I67" s="40" t="e">
         <f>_xll.qlFraRateHelper(H67,G67,B67,E67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J67" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I67)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I67)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4994,13 +4994,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_12x18F</v>
       </c>
-      <c r="I73" s="40" t="str">
+      <c r="I73" s="40" t="e">
         <f>_xll.qlFraRateHelper(H73,G73,B73,E73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J73" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I73)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I73)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5216,13 +5216,13 @@
         <f t="shared" si="7"/>
         <v>HKD_YC6MRH_18x24F</v>
       </c>
-      <c r="I79" s="40" t="str">
+      <c r="I79" s="40" t="e">
         <f>_xll.qlFraRateHelper(H79,G79,B79,E79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0003</v>
+        <v>#NUM!</v>
       </c>
       <c r="J79" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(I79)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I79)</f>
+        <v>qlFraRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor6M'</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7058,12 +7058,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7121,12 +7121,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -7250,13 +7250,13 @@
         <f t="shared" ref="H21:H52" si="3">$H$19&amp;"_FUT"&amp;$E$19&amp;$D21</f>
         <v>HKD_YCSTDRH_FUT3MX3</v>
       </c>
-      <c r="I21" s="56" t="str">
+      <c r="I21" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX3#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J21" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I21)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L21" s="59"/>
     </row>
@@ -7287,13 +7287,13 @@
         <f t="shared" si="3"/>
         <v>HKD_YCSTDRH_FUT3MZ3</v>
       </c>
-      <c r="I22" s="56" t="str">
+      <c r="I22" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ3#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J22" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I22)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L22" s="59"/>
     </row>
@@ -7324,13 +7324,13 @@
         <f t="shared" si="3"/>
         <v>HKD_YCSTDRH_FUT3MF4</v>
       </c>
-      <c r="I23" s="56" t="str">
+      <c r="I23" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J23" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I23)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I23)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L23" s="59"/>
     </row>
@@ -7398,13 +7398,13 @@
         <f t="shared" si="3"/>
         <v>HKD_YCSTDRH_FUT3MH4</v>
       </c>
-      <c r="I25" s="56" t="str">
+      <c r="I25" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J25" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I25)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L25" s="59"/>
     </row>
@@ -7509,13 +7509,13 @@
         <f t="shared" si="3"/>
         <v>HKD_YCSTDRH_FUT3MM4</v>
       </c>
-      <c r="I28" s="56" t="str">
+      <c r="I28" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J28" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I28)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L28" s="59"/>
     </row>
@@ -7620,13 +7620,13 @@
         <f t="shared" si="3"/>
         <v>HKD_YCSTDRH_FUT3MU4</v>
       </c>
-      <c r="I31" s="56" t="str">
+      <c r="I31" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J31" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I31)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L31" s="59"/>
     </row>
@@ -16082,13 +16082,13 @@
         <f t="shared" ref="H269:H300" si="35">$H$267&amp;"_FUT"&amp;$E$267&amp;$D269</f>
         <v>HKD_YC3MRH_FUT3MX3</v>
       </c>
-      <c r="I269" s="56" t="str">
+      <c r="I269" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H269,$F269,$D269,$E269,$G269,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX3#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J269" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I269)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I269)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L269" s="59"/>
     </row>
@@ -16119,13 +16119,13 @@
         <f t="shared" si="35"/>
         <v>HKD_YC3MRH_FUT3MZ3</v>
       </c>
-      <c r="I270" s="56" t="str">
+      <c r="I270" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H270,$F270,$D270,$E270,$G270,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ3#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J270" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I270)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I270)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L270" s="59"/>
     </row>
@@ -16156,13 +16156,13 @@
         <f t="shared" si="35"/>
         <v>HKD_YC3MRH_FUT3MF4</v>
       </c>
-      <c r="I271" s="56" t="str">
+      <c r="I271" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H271,$F271,$D271,$E271,$G271,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J271" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I271)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I271)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L271" s="59"/>
     </row>
@@ -16230,13 +16230,13 @@
         <f t="shared" si="35"/>
         <v>HKD_YC3MRH_FUT3MH4</v>
       </c>
-      <c r="I273" s="56" t="str">
+      <c r="I273" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H273,$F273,$D273,$E273,$G273,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J273" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I273)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I273)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L273" s="59"/>
     </row>
@@ -16341,13 +16341,13 @@
         <f t="shared" si="35"/>
         <v>HKD_YC3MRH_FUT3MM4</v>
       </c>
-      <c r="I276" s="56" t="str">
+      <c r="I276" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H276,$F276,$D276,$E276,$G276,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J276" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I276)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I276)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L276" s="59"/>
     </row>
@@ -16452,13 +16452,13 @@
         <f t="shared" si="35"/>
         <v>HKD_YC3MRH_FUT3MU4</v>
       </c>
-      <c r="I279" s="56" t="str">
+      <c r="I279" s="56" t="e">
         <f>_xll.qlFuturesRateHelper(H279,$F279,$D279,$E279,$G279,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU4#0002</v>
+        <v>#NUM!</v>
       </c>
       <c r="J279" s="45" t="str">
-        <f>_xll.ohRangeRetrieveError(I279)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I279)</f>
+        <v>qlFuturesRateHelper - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHibor3M'</v>
       </c>
       <c r="L279" s="59"/>
     </row>
@@ -24413,12 +24413,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -24476,12 +24476,12 @@
     </row>
     <row r="10" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="V12" s="1" t="s">
         <v>179</v>
       </c>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="L27" s="6" t="str">
         <f>_xll.qlIborIndex(K27,FamilyName,J25,S27,Currency,T27,U27,V27,W27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H_Hibor3M#0003</v>
+        <v>HKD_YCSTDRH_QM3H_Hibor3M#0002</v>
       </c>
       <c r="M27" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -26470,7 +26470,7 @@
       </c>
       <c r="L71" s="6" t="str">
         <f>_xll.qlEonia(K71,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS_Hibor#0003</v>
+        <v>HKD_YCRH_OIS_Hibor#0002</v>
       </c>
       <c r="M71" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L71)</f>
@@ -26669,7 +26669,7 @@
       </c>
       <c r="L76" s="44" t="str">
         <f>_xll.qlOISRateHelper(K76,2,C76,J76,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1M#0002</v>
+        <v>HKD_YCRH_OIS1M#0001</v>
       </c>
       <c r="M76" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L76)</f>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="L77" s="44" t="str">
         <f>_xll.qlOISRateHelper(K77,2,C77,J77,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2M#0002</v>
+        <v>HKD_YCRH_OIS2M#0001</v>
       </c>
       <c r="M77" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L77)</f>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="L78" s="44" t="str">
         <f>_xll.qlOISRateHelper(K78,2,C78,J78,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3M#0002</v>
+        <v>HKD_YCRH_OIS3M#0001</v>
       </c>
       <c r="M78" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L78)</f>
@@ -26822,7 +26822,7 @@
       </c>
       <c r="L79" s="44" t="str">
         <f>_xll.qlOISRateHelper(K79,2,C79,J79,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS4M#0002</v>
+        <v>HKD_YCRH_OIS4M#0001</v>
       </c>
       <c r="M79" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L79)</f>
@@ -26873,7 +26873,7 @@
       </c>
       <c r="L80" s="44" t="str">
         <f>_xll.qlOISRateHelper(K80,2,C80,J80,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS5M#0002</v>
+        <v>HKD_YCRH_OIS5M#0001</v>
       </c>
       <c r="M80" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L80)</f>
@@ -26924,7 +26924,7 @@
       </c>
       <c r="L81" s="44" t="str">
         <f>_xll.qlOISRateHelper(K81,2,C81,J81,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS6M#0002</v>
+        <v>HKD_YCRH_OIS6M#0001</v>
       </c>
       <c r="M81" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L81)</f>
@@ -27077,7 +27077,7 @@
       </c>
       <c r="L84" s="44" t="str">
         <f>_xll.qlOISRateHelper(K84,2,C84,J84,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS9M#0002</v>
+        <v>HKD_YCRH_OIS9M#0001</v>
       </c>
       <c r="M84" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L84)</f>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="L87" s="44" t="str">
         <f>_xll.qlOISRateHelper(K87,2,C87,J87,$L$71,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1Y#0002</v>
+        <v>HKD_YCRH_OIS1Y#0001</v>
       </c>
       <c r="M87" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L87)</f>
@@ -31039,7 +31039,7 @@
       </c>
       <c r="L169" s="6" t="str">
         <f>_xll.qlEonia(K169,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS_HiborON#0003</v>
+        <v>HKD_YCONRH_OIS_HiborON#0002</v>
       </c>
       <c r="M169" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L169)</f>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="L174" s="44" t="str">
         <f>_xll.qlOISRateHelper(K174,2,C174,J174,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1M#0002</v>
+        <v>HKD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="M174" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L174)</f>
@@ -31293,7 +31293,7 @@
       </c>
       <c r="L175" s="44" t="str">
         <f>_xll.qlOISRateHelper(K175,2,C175,J175,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2M#0002</v>
+        <v>HKD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="M175" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L175)</f>
@@ -31345,7 +31345,7 @@
       </c>
       <c r="L176" s="44" t="str">
         <f>_xll.qlOISRateHelper(K176,2,C176,J176,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3M#0002</v>
+        <v>HKD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="M176" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L176)</f>
@@ -31397,7 +31397,7 @@
       </c>
       <c r="L177" s="44" t="str">
         <f>_xll.qlOISRateHelper(K177,2,C177,J177,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS4M#0002</v>
+        <v>HKD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="M177" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L177)</f>
@@ -31449,7 +31449,7 @@
       </c>
       <c r="L178" s="44" t="str">
         <f>_xll.qlOISRateHelper(K178,2,C178,J178,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS5M#0002</v>
+        <v>HKD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="M178" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L178)</f>
@@ -31501,7 +31501,7 @@
       </c>
       <c r="L179" s="44" t="str">
         <f>_xll.qlOISRateHelper(K179,2,C179,J179,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS6M#0002</v>
+        <v>HKD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="M179" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L179)</f>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="L182" s="44" t="str">
         <f>_xll.qlOISRateHelper(K182,2,C182,J182,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS9M#0002</v>
+        <v>HKD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="M182" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L182)</f>
@@ -31813,7 +31813,7 @@
       </c>
       <c r="L185" s="44" t="str">
         <f>_xll.qlOISRateHelper(K185,2,C185,J185,$L$169,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1Y#0002</v>
+        <v>HKD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="M185" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(L185)</f>
@@ -35698,7 +35698,7 @@
       </c>
       <c r="L266" s="6" t="str">
         <f>_xll.qlIborIndex(K266,FamilyName,J264,S266,Currency,T266,U266,V266,W266,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0003</v>
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0002</v>
       </c>
       <c r="M266" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L266)</f>
@@ -36319,7 +36319,7 @@
       </c>
       <c r="L285" s="6" t="str">
         <f>_xll.qlIborIndex(K285,FamilyName,J283,S285,Currency,T285,U285,V285,W285,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H_Hibor3M#0003</v>
+        <v>HKD_YC3MRH_QM3H_Hibor3M#0002</v>
       </c>
       <c r="M285" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L285)</f>
@@ -38445,7 +38445,7 @@
       </c>
       <c r="L337" s="6" t="str">
         <f>_xll.qlIborIndex(K337,FamilyName,J335,S337,Currency,T337,U337,V337,W337,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_QM3H_Hibor6M#0003</v>
+        <v>HKD_YC6MRH_QM3H_Hibor6M#0002</v>
       </c>
       <c r="M337" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(L337)</f>
@@ -40293,11 +40293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="33" t="s">
         <v>140</v>
       </c>
@@ -40347,13 +40347,13 @@
       <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="22" t="e">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41596</v>
-      </c>
-      <c r="L2" s="22">
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" s="22" t="e">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41597</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -45400,10 +45400,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="6"/>
       <c r="D1" s="33" t="s">
         <v>45</v>
@@ -45601,7 +45601,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_RateHelpersSelected#0000</v>
+        <v>HKD_YCRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -48678,7 +48678,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48820,7 +48820,7 @@
       </c>
       <c r="D15" s="12" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D17,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D23),NA(),D21:E21),IF(ISERROR(D23),NA(),D22:E22),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC#0000</v>
+        <v>_HKDYC#0001</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
